--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT02D53329\IdeaProjects\com.beymen\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649C6F53-A310-42DC-A262-2AD75AAB9CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C196EB-79FA-42A3-B0B4-69B94577F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38910" yWindow="8745" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>şort</t>
   </si>
@@ -348,53 +348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT02D53329\IdeaProjects\com.beymen\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C196EB-79FA-42A3-B0B4-69B94577F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3594D90-A4AB-4BEE-9060-E4FD03D919A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>şort</t>
   </si>
   <si>
-    <t>gomlek</t>
+    <t>gömlek</t>
+  </si>
+  <si>
+    <t>deniz</t>
+  </si>
+  <si>
+    <t>kum</t>
+  </si>
+  <si>
+    <t>saygı</t>
   </si>
 </sst>
 </file>
@@ -348,22 +357,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
